--- a/videominhchunglamviecnhom/Video minh chứng.xlsx
+++ b/videominhchunglamviecnhom/Video minh chứng.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanh Tam\Desktop\Thanh Tam\Nam 2\TTCSN\nhom-6-K16_TTCSN002_Chieu\videominhchunglamviecnhom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4E57556-9AE4-4D2B-A5BA-08B3D631AA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7C785E-3C7C-4C07-BDA6-2B628B1FC736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{012F944B-875D-45B9-AE79-021C95130B3C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Video minh chứng</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1lybwQ1oC433RFyp9mZBWdawvVePL_neo/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>19/05/23</t>
+  </si>
+  <si>
+    <t>26/05/23</t>
   </si>
 </sst>
 </file>
@@ -89,7 +95,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -155,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -167,7 +173,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -179,11 +185,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F02B584-33AF-40DC-A129-25E497AFB9AB}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -522,7 +535,7 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -530,7 +543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
@@ -538,13 +551,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
@@ -552,7 +565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
@@ -560,13 +573,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>45111</v>
       </c>
@@ -574,13 +587,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
@@ -588,13 +601,31 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>45051</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="13" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="13">
+        <v>44963</v>
+      </c>
+      <c r="B15" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/videominhchunglamviecnhom/Video minh chứng.xlsx
+++ b/videominhchunglamviecnhom/Video minh chứng.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanh Tam\Desktop\Thanh Tam\Nam 2\TTCSN\nhom-6-K16_TTCSN002_Chieu\videominhchunglamviecnhom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VICTUS\Desktop\thuctapcosonganh\videominhchunglamviecnhom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4E57556-9AE4-4D2B-A5BA-08B3D631AA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B6E9A0-1FEC-44D5-84A4-F0D689F75430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{012F944B-875D-45B9-AE79-021C95130B3C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Video minh chứng</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1lybwQ1oC433RFyp9mZBWdawvVePL_neo/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>19/05/23</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1Ds8USfbAkwVSTxwuGdsZYeLIIgo8C_4Z</t>
   </si>
 </sst>
 </file>
@@ -89,9 +95,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +124,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -152,10 +166,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -167,7 +182,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -179,14 +194,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -499,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F02B584-33AF-40DC-A129-25E497AFB9AB}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
@@ -596,13 +616,24 @@
         <v>9</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A7:A8"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{1F66AE00-29C2-4CFB-A517-A303E2C024FE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/videominhchunglamviecnhom/Video minh chứng.xlsx
+++ b/videominhchunglamviecnhom/Video minh chứng.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VICTUS\Desktop\thuctapcosonganh\videominhchunglamviecnhom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanh Tam\Desktop\Thanh Tam\Nam 2\TTCSN\nhom-6-K16_TTCSN002_Chieu\videominhchunglamviecnhom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B6E9A0-1FEC-44D5-84A4-F0D689F75430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D968877-76D9-46BE-85CF-823A387685CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{012F944B-875D-45B9-AE79-021C95130B3C}"/>
   </bookViews>
@@ -97,7 +97,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +132,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -200,10 +207,10 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -521,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F02B584-33AF-40DC-A129-25E497AFB9AB}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -608,7 +615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>45051</v>
       </c>
@@ -616,11 +623,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
     </row>

--- a/videominhchunglamviecnhom/Video minh chứng.xlsx
+++ b/videominhchunglamviecnhom/Video minh chứng.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanh Tam\Desktop\Thanh Tam\Nam 2\TTCSN\nhom-6-K16_TTCSN002_Chieu\videominhchunglamviecnhom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TTCSN\nhom-6-K16_TTCSN002_Chieu\videominhchunglamviecnhom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D968877-76D9-46BE-85CF-823A387685CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{012F944B-875D-45B9-AE79-021C95130B3C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,9 +50,6 @@
     <t>2:https://drive.google.com/file/d/1JxQXydJpka8ZP61_s_IG2831o9bp4K2c/view?usp=share_link</t>
   </si>
   <si>
-    <t>Trên github</t>
-  </si>
-  <si>
     <t>1:https://drive.google.com/file/d/1q26N6XbjhA7N8iM3euUI8GIWafZ10lZr/view?usp=sharing</t>
   </si>
   <si>
@@ -88,12 +84,15 @@
   </si>
   <si>
     <t>https://drive.google.com/drive/folders/1Ds8USfbAkwVSTxwuGdsZYeLIIgo8C_4Z</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ni3bpogdQtbw8a9C8MCAGQwtovTnDian/view?usp=share_link  https://drive.google.com/file/d/17VV2YPj0uqbUKDMsWT3UTCsgMqE17gwr/view?usp=share_link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
@@ -198,6 +197,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -207,10 +210,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -525,11 +524,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F02B584-33AF-40DC-A129-25E497AFB9AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -540,10 +539,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
@@ -558,39 +557,39 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>10</v>
+      <c r="A4" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
+    <row r="8" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12"/>
+      <c r="B8" s="4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -598,21 +597,21 @@
         <v>45111</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
@@ -620,15 +619,15 @@
         <v>45051</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -638,7 +637,7 @@
     <mergeCell ref="A7:A8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" xr:uid="{1F66AE00-29C2-4CFB-A517-A303E2C024FE}"/>
+    <hyperlink ref="B13" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/videominhchunglamviecnhom/Video minh chứng.xlsx
+++ b/videominhchunglamviecnhom/Video minh chứng.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Video minh chứng</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1ni3bpogdQtbw8a9C8MCAGQwtovTnDian/view?usp=share_link  https://drive.google.com/file/d/17VV2YPj0uqbUKDMsWT3UTCsgMqE17gwr/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>26/05/23</t>
   </si>
 </sst>
 </file>
@@ -176,7 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -209,6 +212,9 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -525,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -628,6 +634,11 @@
       </c>
       <c r="B13" s="9" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/videominhchunglamviecnhom/Video minh chứng.xlsx
+++ b/videominhchunglamviecnhom/Video minh chứng.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Video minh chứng</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>26/05/23</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1fP8yAd2eFaeelHjml0DteN2NcfgFpdGt/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/15whvlbD_5XuAOu-vJMdYunnaNB6gKIlG?usp=drive_link</t>
   </si>
 </sst>
 </file>
@@ -151,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -174,12 +180,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -204,6 +258,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -212,9 +274,6 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -531,24 +590,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="104.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="109.21875" style="1" customWidth="1"/>
     <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
@@ -563,7 +622,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -571,7 +630,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
@@ -585,7 +644,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -593,7 +652,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -637,8 +696,19 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>18</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="10">
+        <v>44963</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/videominhchunglamviecnhom/Video minh chứng.xlsx
+++ b/videominhchunglamviecnhom/Video minh chứng.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TTCSN\nhom-6-K16_TTCSN002_Chieu\videominhchunglamviecnhom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanh Tam\Desktop\Thanh Tam\Nam 2\TTCSN\nhom-6-K16_TTCSN002_Chieu\videominhchunglamviecnhom\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E958BDB-3F4E-4932-8192-F42DBB4347E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -101,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
@@ -589,11 +581,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -695,7 +687,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="25.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>18</v>
       </c>
@@ -703,7 +695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="25.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>44963</v>
       </c>
@@ -718,7 +710,7 @@
     <mergeCell ref="A7:A8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1"/>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
